--- a/checkaccount/data/accounts.xlsx
+++ b/checkaccount/data/accounts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\PycharmProjects\dumanCPMSBack\checkaccount\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/checkaccount/data/accounts.xlsx
+++ b/checkaccount/data/accounts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\PycharmProjects\dumanCPMSBack\checkaccount\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\PycharmProjects\dumanCPMSRevise\checkaccount\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>18275664122</v>
+        <v>18364773884</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -586,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>18364773884</v>
+        <v>18319776776</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>

--- a/checkaccount/data/accounts.xlsx
+++ b/checkaccount/data/accounts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>firm_type</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>uucok@gmail.com</t>
+  </si>
+  <si>
+    <t>Ankara</t>
   </si>
 </sst>
 </file>
@@ -470,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -547,6 +550,9 @@
       <c r="C2">
         <v>18364773884</v>
       </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>

--- a/checkaccount/data/accounts.xlsx
+++ b/checkaccount/data/accounts.xlsx
@@ -74,9 +74,6 @@
     <t>Şahıs İşletmesi</t>
   </si>
   <si>
-    <t>Umut A.Ş.</t>
-  </si>
-  <si>
     <t>DUMAN A.Ş.</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Ankara</t>
+  </si>
+  <si>
+    <t>Umut Üçok</t>
   </si>
 </sst>
 </file>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -545,43 +545,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>18364773884</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -589,43 +589,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>18319776776</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
       <c r="K3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
       <c r="N3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
